--- a/Tablet/Stories/Action1/Results.xlsx
+++ b/Tablet/Stories/Action1/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Historias\Foto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Stories\Action1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0BB59A-490B-49C7-9EDD-9B26F6FCEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E697342-A505-49DD-AE77-108F105A5EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,16 +556,16 @@
       <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
         <v>17656</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -591,7 +591,7 @@
         <v>17.655999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -631,7 +631,7 @@
         <v>1.0095099999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -651,7 +651,7 @@
         <v>2.8978600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1.8883500000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -691,7 +691,7 @@
         <v>1.5561633333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1.2187625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -731,7 +731,7 @@
         <v>1.7117549999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0.49299249999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0.5026991936735129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0.25270647932000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1.359955</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1.4944096666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1.7617100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1.4890208660239124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0.26027999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -911,7 +911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -929,7 +929,7 @@
         <v>18666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,7 +937,7 @@
         <v>18.666</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -957,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1.02508</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -997,7 +997,7 @@
         <v>2.99065</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1.96557</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1.4969881578947368</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>1.1763750000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>1.5497099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0.37333499999999975</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0.4928548857195148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0.242905938377596</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>1.31768</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1.4111646666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>1.6786700000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1.4335877460268731</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0.18862500000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>17159</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>17.158999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1.03392</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>2.6870099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1.6530899999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1.5349408571428571</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1.21767</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1.7323999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0.51472999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0.46901947403675504</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0.21997926702571433</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>1.3266</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>1.4801655172413792</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>1.7510699999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>1.4756457709965587</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0.16629999999999989</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>18160</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0.98072999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2.5690200000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1.5882900000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>1.4805116216216216</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1.1488049999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>1.671435</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0.52263000000000015</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0.45048489753643067</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0.20293664290840846</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1.30125</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>1.4291187096774194</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>1.7266700000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1.4237666336409682</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0.18093000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>18663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>18.663</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>0.97977000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>2.6134499999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1.6336799999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1.5011563157894736</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1.2459199999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1.8704049999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0.62448499999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0.44623231937066665</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0.19912328285092462</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>1.299215</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>1.4362200000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>1.700375</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1.4458482020164294</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0.13866999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>18160</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>1.0151399999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>3.10209</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>2.0869499999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1.5405243243243243</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1.186625</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>1.8111000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0.62447500000000011</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0.52341421621535689</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.27396244173633633</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1.3256600000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>1.4709254838709678</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>1.7901899999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>1.4700412971272387</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0.19281999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>17155</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>17.155000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1.0079400000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>2.5536599999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1.5457199999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>1.5568957142857143</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1.2037</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1.8384</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0.63470000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0.46693509804257982</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0.21802838578403363</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>1.3757699999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>1.510545172413793</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>1.781895</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1.4965324997174509</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0.23009999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>18163</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>18.163</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0.99541999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>2.7427299999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>1.7473099999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>1.4930405405405405</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1.198985</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1.54898</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0.34999500000000006</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0.4483775634498845</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0.20104243940525521</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>1.3431900000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1.4380716129032258</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1.7218450000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1.4384176380882499</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0.18185999999999991</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>18166</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>18.166</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1.0373699999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>2.6816900000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>1.6443200000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1.5289810810810811</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>1.2797700000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1.69401</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0.41423999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0.43004522821432389</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.18493889830990992</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>1.3767100000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>1.4731932258064515</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>1.7921200000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>1.4791026022518716</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0.20161000000000007</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>18667</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>18.667000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1.06335</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>2.6115699999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1.5482199999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>1.4827457894736842</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>13</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1.1749450000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>1.6116900000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0.43674499999999994</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0.43034376291412613</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>0.1851957542790896</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1.3111899999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>19</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1.4070633333333333</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>20</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>1.7105299999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1.4318418493551874</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>22</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>0.16433500000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
@@ -4035,25 +4035,25 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0.97977000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>3.10209</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2.1223200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1.5171947735487368</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>1.2051557500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>1.7039884999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.49883274999999982</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>2.9578848241162161E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>8.7490826327370186E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1.3337220000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>1.5168175499475038</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>1.5198207518796991</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1.5169355951774708</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>2.3741891891891909E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>27.402813402450509</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>23.951896994999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>26.338050167714282</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>28.016080321578947</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>0.59430267536989811</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>9.7066975474505099</v>

--- a/Tablet/Stories/Action1/Results.xlsx
+++ b/Tablet/Stories/Action1/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Stories\Action1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E697342-A505-49DD-AE77-108F105A5EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ABA345-6710-426A-95DD-7148C1176D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,19 +168,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -4035,7 +4035,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
